--- a/huanggang/20200213.xlsx
+++ b/huanggang/20200213.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="2780" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>自动求和</t>
+  </si>
+  <si>
+    <t>临床诊断病例</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -166,6 +169,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,7 +490,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,11 +499,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -514,7 +518,9 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -529,7 +535,9 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4">
+        <v>-1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -544,7 +552,9 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -559,7 +569,9 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4">
+        <v>-9</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -574,7 +586,9 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -589,7 +603,9 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -604,7 +620,9 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -619,7 +637,9 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="4">
+        <v>-8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -634,7 +654,9 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -649,7 +671,9 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -664,7 +688,9 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4">
+        <v>-15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -679,7 +705,9 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="4">
+        <v>-34</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -697,7 +725,10 @@
         <f>SUM(D3:D12)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="4">
+        <f>SUM(E3:E12)</f>
+        <v>-34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
